--- a/biology/Botanique/Maurice_Chassagne/Maurice_Chassagne.xlsx
+++ b/biology/Botanique/Maurice_Chassagne/Maurice_Chassagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guillaume Chassagne dit Maurice Chassagne, né le 23 mars 1880 à Lezoux, commune où il est mort le 10 février 1963[1], est un médecin et botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guillaume Chassagne dit Maurice Chassagne, né le 23 mars 1880 à Lezoux, commune où il est mort le 10 février 1963, est un médecin et botaniste français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut d'abord licencié en Sciences naturelles de l'Université de Clermont-Ferrand, puis docteur en médecine de l'Université de Paris.
 Il est des premiers membres correspondants de la Station internationale de géobotanique méditerranéenne et alpine de Montpellier, à sa fondation en 1930.
@@ -544,7 +558,9 @@
           <t>Ses publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plantes nouvelles et localités de plantes rares de la flore d'Auvergne, 1914, 38 p.
 Recherches sur la végétation du Mont Pilat, Impr. Rey, 1924, 6 p.
